--- a/xlsx/昭昭天命_intext.xlsx
+++ b/xlsx/昭昭天命_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
   <si>
     <t>昭昭天命</t>
   </si>
@@ -29,7 +29,7 @@
     <t>寓言</t>
   </si>
   <si>
-    <t>政策_政策_美國_昭昭天命</t>
+    <t>政策_政策_美国_昭昭天命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A_(%E7%BE%8E%E5%9B%BD)</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
@@ -71,25 +71,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>大陸</t>
+    <t>大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%BD%E9%81%8B</t>
   </si>
   <si>
-    <t>命運</t>
+    <t>命运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>標語</t>
+    <t>标语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E6%93%B4%E5%BC%B5</t>
   </si>
   <si>
-    <t>美國領土擴張</t>
+    <t>美国领土扩张</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
@@ -101,19 +101,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BE%8B%E5%A4%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>美國例外主義</t>
+    <t>美国例外主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA%E7%9B%8E%E6%A0%BC%E9%AD%AF-%E6%92%92%E5%85%8B%E9%81%9C%E6%96%B0%E6%95%99%E5%BE%92</t>
   </si>
   <si>
-    <t>白人盎格魯-撒克遜新教徒</t>
+    <t>白人盎格鲁-撒克逊新教徒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美西地區</t>
+    <t>美西地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%89%B2%E8%AE%A9</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%8B%93%E8%80%85</t>
@@ -143,19 +143,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
   </si>
   <si>
-    <t>意識形態</t>
+    <t>意识形态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E8%AA%AA</t>
   </si>
   <si>
-    <t>學說</t>
+    <t>学说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E6%AC%84%E4%BD%9C%E5%AE%B6</t>
   </si>
   <si>
-    <t>專欄作家</t>
+    <t>专栏作家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>德克薩斯共和國</t>
+    <t>德克萨斯共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>大英帝國</t>
+    <t>大英帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美墨戰爭</t>
+    <t>美墨战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%9D%E6%A0%BC%E9%BB%A8</t>
   </si>
   <si>
-    <t>輝格黨</t>
+    <t>辉格党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%AF%BA%E5%85%8B%E6%96%AF%C2%B7%E6%B3%A2%E5%B0%94%E5%85%8B</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>眾議院</t>
+    <t>众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%8B%E5%9F%BA</t>
@@ -257,19 +257,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E8%AD%98</t>
   </si>
   <si>
-    <t>常識</t>
+    <t>常识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>美國革命</t>
+    <t>美国革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E4%BA%9E</t>
   </si>
   <si>
-    <t>挪亞</t>
+    <t>挪亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%88%B6</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E8%8C%B2%E5%A0%A1%E6%BC%94%E8%AA%AA</t>
   </si>
   <si>
-    <t>蓋茲堡演說</t>
+    <t>盖兹堡演说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%B2%81%C2%B7%E6%9D%B0%E5%85%8B%E9%80%8A</t>
@@ -305,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E8%A5%BF%E5%AE%89%E7%B4%8D%E8%B3%BC%E5%9C%B0</t>
   </si>
   <si>
-    <t>路易西安納購地</t>
+    <t>路易西安纳购地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%9C%9F</t>
   </si>
   <si>
-    <t>領土</t>
+    <t>领土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1812%E5%B9%B4%E6%88%98%E4%BA%89</t>
@@ -329,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%AC%E5%9C%9F</t>
   </si>
   <si>
-    <t>美國本土</t>
+    <t>美国本土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8C%97%E7%BE%8E</t>
   </si>
   <si>
-    <t>英屬北美</t>
+    <t>英属北美</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -389,13 +389,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94</t>
   </si>
   <si>
-    <t>佛羅里達</t>
+    <t>佛罗里达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>邊界</t>
+    <t>边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%A8%E7%BD%97%E4%B8%BB%E4%B9%89</t>
@@ -443,13 +443,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E6%A2%9D%E7%B4%84_(1783%E5%B9%B4)</t>
   </si>
   <si>
-    <t>巴黎條約 (1783年)</t>
+    <t>巴黎条约 (1783年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%82%91%E6%98%8E%C2%B7%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97</t>
   </si>
   <si>
-    <t>本傑明·富蘭克林</t>
+    <t>本杰明·富兰克林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1837%E5%B9%B4%E8%B5%B7%E4%B9%89</t>
@@ -467,19 +467,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E8%8F%B2%E7%88%BE%E5%BE%B7%C2%B7%E5%8F%B2%E8%80%83%E7%89%B9</t>
   </si>
   <si>
-    <t>溫菲爾德·史考特</t>
+    <t>温菲尔德·史考特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%9C%8B%E8%80%85%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>愛國者戰爭</t>
+    <t>爱国者战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8B%92%E5%B2%A1%E5%B0%8F%E5%BE%91</t>
   </si>
   <si>
-    <t>奧勒岡小徑</t>
+    <t>奥勒冈小径</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%B3%B0%E5%8B%92</t>
@@ -491,13 +491,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B7%AF49%E5%BA%A6%E7%B7%9A</t>
   </si>
   <si>
-    <t>北緯49度線</t>
+    <t>北纬49度线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E6%B2%B3</t>
   </si>
   <si>
-    <t>哥倫比亞河</t>
+    <t>哥伦比亚河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>加利福尼亞 (消歧義)</t>
+    <t>加利福尼亚 (消歧义)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E5%9B%A0%E8%99%9F%E6%88%B0%E8%89%A6_(ACR-1)</t>
   </si>
   <si>
-    <t>緬因號戰艦 (ACR-1)</t>
+    <t>缅因号战舰 (ACR-1)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E5%BE%B7%E4%BA%9E%E5%BE%B7%C2%B7%E5%90%89%E5%8D%9C%E6%9E%97</t>
   </si>
   <si>
-    <t>魯德亞德·吉卜林</t>
+    <t>鲁德亚德·吉卜林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA%E7%9A%84%E8%B4%9F%E6%8B%85</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%87%AA%E6%B1%BA</t>
   </si>
   <si>
-    <t>民族自決</t>
+    <t>民族自决</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -737,9 +737,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F%E6%89%A9%E5%BC%A0</t>
   </si>
   <si>
-    <t>美国领土扩张</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
@@ -755,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%E6%96%AF-%E5%A5%A7%E5%B0%BC%E6%96%AF%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>亞當斯-奧尼斯條約</t>
+    <t>亚当斯-奥尼斯条约</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Texas_annexation</t>
@@ -773,13 +770,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%89%B2%E8%AE%93%E5%9C%B0</t>
   </si>
   <si>
-    <t>墨西哥割讓地</t>
+    <t>墨西哥割让地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E8%8C%B2%E7%99%BB%E8%B3%BC%E5%9C%B0</t>
   </si>
   <si>
-    <t>蓋茲登購地</t>
+    <t>盖兹登购地</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Guano_Islands_Act</t>
@@ -803,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E6%A2%9D%E7%B4%84_(1898%E5%B9%B4)</t>
   </si>
   <si>
-    <t>巴黎條約 (1898年)</t>
+    <t>巴黎条约 (1898年)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tripartite_Convention</t>
@@ -4968,7 +4965,7 @@
         <v>239</v>
       </c>
       <c r="F131" t="s">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -4994,10 +4991,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>240</v>
+      </c>
+      <c r="F132" t="s">
         <v>241</v>
-      </c>
-      <c r="F132" t="s">
-        <v>242</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5052,10 +5049,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>242</v>
+      </c>
+      <c r="F134" t="s">
         <v>243</v>
-      </c>
-      <c r="F134" t="s">
-        <v>244</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5110,10 +5107,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>244</v>
+      </c>
+      <c r="F136" t="s">
         <v>245</v>
-      </c>
-      <c r="F136" t="s">
-        <v>246</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5139,10 +5136,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>246</v>
+      </c>
+      <c r="F137" t="s">
         <v>247</v>
-      </c>
-      <c r="F137" t="s">
-        <v>248</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5168,10 +5165,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>248</v>
+      </c>
+      <c r="F138" t="s">
         <v>249</v>
-      </c>
-      <c r="F138" t="s">
-        <v>250</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5197,10 +5194,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>250</v>
+      </c>
+      <c r="F139" t="s">
         <v>251</v>
-      </c>
-      <c r="F139" t="s">
-        <v>252</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5226,10 +5223,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>252</v>
+      </c>
+      <c r="F140" t="s">
         <v>253</v>
-      </c>
-      <c r="F140" t="s">
-        <v>254</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5255,10 +5252,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>254</v>
+      </c>
+      <c r="F141" t="s">
         <v>255</v>
-      </c>
-      <c r="F141" t="s">
-        <v>256</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5284,10 +5281,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>256</v>
+      </c>
+      <c r="F142" t="s">
         <v>257</v>
-      </c>
-      <c r="F142" t="s">
-        <v>258</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5313,10 +5310,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>258</v>
+      </c>
+      <c r="F143" t="s">
         <v>259</v>
-      </c>
-      <c r="F143" t="s">
-        <v>260</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5342,10 +5339,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>260</v>
+      </c>
+      <c r="F144" t="s">
         <v>261</v>
-      </c>
-      <c r="F144" t="s">
-        <v>262</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5371,10 +5368,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>262</v>
+      </c>
+      <c r="F145" t="s">
         <v>263</v>
-      </c>
-      <c r="F145" t="s">
-        <v>264</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5400,10 +5397,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>264</v>
+      </c>
+      <c r="F146" t="s">
         <v>265</v>
-      </c>
-      <c r="F146" t="s">
-        <v>266</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5429,10 +5426,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>266</v>
+      </c>
+      <c r="F147" t="s">
         <v>267</v>
-      </c>
-      <c r="F147" t="s">
-        <v>268</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5458,10 +5455,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>268</v>
+      </c>
+      <c r="F148" t="s">
         <v>269</v>
-      </c>
-      <c r="F148" t="s">
-        <v>270</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
